--- a/biology/Médecine/Cancérogenèse/Cancérogenèse.xlsx
+++ b/biology/Médecine/Cancérogenèse/Cancérogenèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canc%C3%A9rogen%C3%A8se</t>
+          <t>Cancérogenèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cancérogenèse est l'ensemble de phénomènes transformant une cellule normale en cellule cancéreuse.
 La formation d'une tumeur maligne met en jeu un ensemble d'événements qui aboutissent à une prolifération incontrôlée des cellules. Les tumeurs apparaissent lorsque environ une demi douzaine de gènes participant au contrôle de la croissance cellulaire ont muté. Cependant, normalement les systèmes de défenses de l'organisme doivent empêcher le cancer de se développer.
